--- a/صيدليات دكتور مصطفي طلعت_2025-12-25_11-15.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2025-12-25_11-15.xlsx
@@ -41,24 +41,48 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CAPIXY HAIR CREAM 120 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>275.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CAPIXY HAIR SHAMPOO 250 ML</t>
+  </si>
+  <si>
+    <t>CAPIXY HAIR TONIC SPRAY 250 ML</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>375.0000</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
     <t>81.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>TEMPO COOL</t>
   </si>
   <si>
@@ -78,9 +102,6 @@
   </si>
   <si>
     <t>TRIVASTAL RETARD 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>47.50</t>
@@ -812,24 +833,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -838,14 +859,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -855,11 +876,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>15</v>
@@ -871,14 +892,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -888,11 +909,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>15</v>
@@ -904,31 +925,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -937,28 +958,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>15</v>
@@ -970,68 +991,167 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="26.25" customHeight="1">
-      <c r="N14" s="13">
-        <v>249.595</v>
-      </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>38</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>26</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>39</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>40</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c t="s" r="Q14" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>41</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>42</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>26</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>43</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>38</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>26</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>43</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="26.25" customHeight="1">
+      <c r="N17" s="13">
+        <v>1174.595</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>46</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>47</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>48</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1075,10 +1195,25 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
